--- a/backend/app/lab4/test.xlsx
+++ b/backend/app/lab4/test.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Для учебы\4 семестр\WEB-INTARO\project-PHP-WEB\backend\app\lab4\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F935B13F-DEA7-44B1-A4DA-B6B7B75BFAA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="600" windowWidth="27495" windowHeight="13740"/>
+    <workbookView xWindow="180" yWindow="360" windowWidth="20568" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -657,7 +663,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -705,10 +711,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -719,14 +725,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -764,7 +773,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -836,7 +845,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1009,26 +1018,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="3"/>
-    <col min="2" max="2" width="62.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" style="3"/>
+    <col min="2" max="2" width="62.44140625" customWidth="1"/>
     <col min="3" max="3" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1036,7 +1045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1044,7 +1053,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1052,7 +1061,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,12 +1069,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -1076,7 +1085,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2</v>
       </c>
@@ -1087,7 +1096,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>3</v>
       </c>
@@ -1098,7 +1107,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>4</v>
       </c>
@@ -1109,7 +1118,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>5</v>
       </c>
@@ -1120,7 +1129,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>6</v>
       </c>
@@ -1131,7 +1140,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>7</v>
       </c>
@@ -1142,12 +1151,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1</v>
       </c>
@@ -1158,7 +1167,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>2</v>
       </c>
@@ -1169,7 +1178,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>3</v>
       </c>
@@ -1180,7 +1189,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>4</v>
       </c>
@@ -1191,7 +1200,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>5</v>
       </c>
@@ -1202,7 +1211,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>6</v>
       </c>
@@ -1213,12 +1222,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>1</v>
       </c>
@@ -1229,7 +1238,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>2</v>
       </c>
@@ -1240,7 +1249,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>3</v>
       </c>
@@ -1251,7 +1260,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>4</v>
       </c>
@@ -1259,7 +1268,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>5</v>
       </c>
@@ -1270,7 +1279,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>6</v>
       </c>
@@ -1281,7 +1290,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>7</v>
       </c>
@@ -1292,7 +1301,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>8</v>
       </c>
@@ -1303,7 +1312,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>9</v>
       </c>
@@ -1314,7 +1323,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>10</v>
       </c>
@@ -1325,7 +1334,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>11</v>
       </c>

--- a/backend/app/lab4/test.xlsx
+++ b/backend/app/lab4/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Для учебы\4 семестр\WEB-INTARO\project-PHP-WEB\backend\app\lab4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F935B13F-DEA7-44B1-A4DA-B6B7B75BFAA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64673F01-662C-423D-9C94-74D1798E3171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="180" yWindow="360" windowWidth="20568" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1021,8 +1021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
